--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1929875.132565952</v>
+        <v>1922858.117674241</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>340.3328804013242</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>141.4106407312801</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.777525990011728</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>108.1666500611881</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>250.9108128418588</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>74.53436060286468</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>70.89253115536377</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>241.7627700121621</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>97.42715891998024</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>26.71728140711184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>60.54139430664122</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>42.5254886890045</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>122.4686819962961</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3329354106956</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>43.92677689897251</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002169</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>60.3724642749169</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002169</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>238.2336684417116</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>59.86336435618182</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>100.4879364842347</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>143.2172878001797</v>
+        <v>59.77945773664917</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>60.54139430664144</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>253.1488561805823</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>161.4046520073175</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2134.880026519315</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="C2" t="n">
-        <v>1765.917509578904</v>
+        <v>2096.980396922474</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1738.714698315724</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1352.926445717479</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>941.9405409278718</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>523.9767328260587</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>196.7820128620615</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4366,16 +4366,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2134.880026519315</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>2134.880026519315</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2627963377356</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>429.8456263007749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1472.812633166741</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1199.034848075707</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>788.0489432860991</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.412473230863</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1859.412473230863</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>129.230214752551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>129.230214752551</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>550.4609080000314</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>139.4750032104238</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>125.5515991490147</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4840,16 +4840,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.341643278937</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4889,37 +4889,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>517.0636002298164</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>348.1274173019095</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>198.0107778895738</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4986,28 +4986,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>671.7249121235795</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>671.7249121235795</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>671.7249121235795</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>671.7249121235795</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>671.7249121235795</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>671.7249121235795</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>443.7353612255621</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5020,13 +5020,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5038,49 +5038,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277031</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775526</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170014</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>420.3226148324569</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>420.3226148324569</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>420.3226148324569</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>420.3226148324569</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>420.3226148324569</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247856</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383438</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324569</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324569</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324569</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.3226148324569</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277031</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L15" t="n">
-        <v>534.542980734167</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918009</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136706</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>517.9294177607301</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>367.8127783483943</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>699.5778825909698</v>
       </c>
     </row>
     <row r="17">
@@ -5512,37 +5512,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4058.219498354871</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>4660.934562929844</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>4529.285133222071</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>4529.285133222071</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>4529.285133222071</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>4239.86796318511</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>4239.86796318511</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>4239.86796318511</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,61 +5743,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>438.5941600866659</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>438.5941600866659</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>288.4775206743301</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>288.4775206743301</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>141.5875731764197</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4744.160657054477</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>4520.375241843983</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>4231.246603057541</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V22" t="n">
-        <v>3976.562114851654</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="W22" t="n">
-        <v>3687.144944814693</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916676</v>
+        <v>620.2426249169056</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>620.2426249169056</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1238.013973327074</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>983.329485121187</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6478,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4744.160657054477</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4520.375241843983</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4231.246603057541</v>
+        <v>1258.27620142486</v>
       </c>
       <c r="V31" t="n">
-        <v>3976.562114851654</v>
+        <v>1003.591713218973</v>
       </c>
       <c r="W31" t="n">
-        <v>3687.144944814693</v>
+        <v>714.1745431820127</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916676</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,25 +6712,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3688.55962164881</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3519.623438720903</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3519.623438720903</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3519.623438720903</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3519.623438720903</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3519.623438720903</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380589</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625201</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576117</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576117</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4460.650830789675</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>4205.966342583788</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>3916.549172546827</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>3688.55962164881</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3688.55962164881</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>496.7497906007063</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>346.6331511883706</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>198.7200576059774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>198.7200576059774</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7171,13 +7171,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,28 +7198,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,16 +7250,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>672.7698012891906</v>
+        <v>157.6003821033658</v>
       </c>
       <c r="C40" t="n">
-        <v>503.8336183612837</v>
+        <v>157.6003821033658</v>
       </c>
       <c r="D40" t="n">
-        <v>503.8336183612837</v>
+        <v>157.6003821033658</v>
       </c>
       <c r="E40" t="n">
-        <v>503.8336183612837</v>
+        <v>157.6003821033658</v>
       </c>
       <c r="F40" t="n">
-        <v>503.8336183612837</v>
+        <v>157.6003821033658</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V40" t="n">
-        <v>1075.21084526296</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.21084526296</v>
+        <v>385.5899330013831</v>
       </c>
       <c r="X40" t="n">
-        <v>1075.21084526296</v>
+        <v>157.6003821033658</v>
       </c>
       <c r="Y40" t="n">
-        <v>854.4182661194303</v>
+        <v>157.6003821033658</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,13 +7423,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,13 +7490,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>420.3226148324571</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>420.3226148324571</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>420.3226148324571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7572,19 +7572,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W43" t="n">
-        <v>420.3226148324571</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X43" t="n">
-        <v>420.3226148324571</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y43" t="n">
-        <v>420.3226148324571</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7666,34 +7666,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>260.2520934878793</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978339</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>288.4091825776765</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776759</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>105.9521741567364</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>183.1841667000326</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>23.96528065027307</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T19" t="n">
-        <v>91.21462564769362</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>122.5667915644051</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338635</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>225.8648881236604</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338635</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>48.00368395686573</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>89.05046401135431</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>66.00563197914293</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>23.27628066319784</v>
+        <v>106.7141107267284</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>105.9521741567361</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>33.08849621799502</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>5.088916456060076</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>886944.3223752767</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>886944.3223752766</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752769</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651767</v>
+      </c>
+      <c r="C2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.106165177</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.1061651768</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651773</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721357</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.324672136</v>
       </c>
       <c r="H2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="I2" t="n">
         <v>488786.3246721359</v>
@@ -26340,22 +26340,22 @@
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="L2" t="n">
         <v>488786.3246721359</v>
-      </c>
-      <c r="L2" t="n">
-        <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721356</v>
       </c>
       <c r="O2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="P2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="P2" t="n">
-        <v>488786.324672136</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.270016921102069e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,22 +26423,22 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
@@ -26447,19 +26447,19 @@
         <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
         <v>7916.731656007485</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.8998286979</v>
+        <v>-307592.899828698</v>
       </c>
       <c r="C6" t="n">
-        <v>282374.9793858465</v>
+        <v>282374.9793858469</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.979385847</v>
+        <v>282374.9793858468</v>
       </c>
       <c r="E6" t="n">
-        <v>-136277.7694094841</v>
+        <v>-137252.3606692061</v>
       </c>
       <c r="F6" t="n">
-        <v>388882.2670674116</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="G6" t="n">
-        <v>388882.2670674117</v>
+        <v>387907.6758076902</v>
       </c>
       <c r="H6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.6758076902</v>
       </c>
       <c r="I6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="J6" t="n">
-        <v>212459.0478748188</v>
+        <v>211484.4566150974</v>
       </c>
       <c r="K6" t="n">
-        <v>388882.2670674118</v>
+        <v>387907.6758076902</v>
       </c>
       <c r="L6" t="n">
-        <v>388882.2670674117</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="M6" t="n">
-        <v>254081.2518335746</v>
+        <v>253106.6605738529</v>
       </c>
       <c r="N6" t="n">
-        <v>388882.2670674119</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="O6" t="n">
-        <v>388882.2670674117</v>
+        <v>387907.6758076901</v>
       </c>
       <c r="P6" t="n">
-        <v>388882.267067412</v>
+        <v>387907.6758076898</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="O3" t="n">
         <v>830.3824054541001</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26807,10 +26807,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>14.35016121935877</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>10.52067551358118</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>103.1161092074294</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.34522396490258</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>257.1062417098194</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>162.8733571789361</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>70.88668742006656</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>17.64056718375454</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>253.0302416089934</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>127.9683306663069</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>49.00680372658893</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>119.947910573046</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29936,7 +29936,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,43 +31916,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,31 +32639,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,43 +33967,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,43 +34049,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M41" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,10 +34204,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
@@ -34216,7 +34216,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
@@ -34225,10 +34225,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34304,7 +34304,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34316,10 +34316,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U43" t="n">
         <v>0.08167695791351813</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879391</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958075</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315245</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879391</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315245</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507405</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>598.8335596281426</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.214186879924</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37946,7 +37946,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1922858.117674241</v>
+        <v>1927797.380523273</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>141.4106407312797</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>141.4106407312801</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>43.31785343913975</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>250.9108128418588</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.14293923153266</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>70.89253115536377</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>97.42715891998024</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>9.728248008472399</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>76.51130099392688</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>42.5254886890045</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>122.4686819962961</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>124.6501923679398</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2004,16 +2004,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.526976800218</v>
+        <v>161.9299707215272</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>43.92677689897251</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>157.2425576766698</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>29.32201570294635</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
-        <v>60.3724642749169</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2851,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701319</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>33.61380401919512</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>238.2336684417116</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113147</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>218.5843930538364</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>28.56876306769143</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>59.77945773664917</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>139.1537278750033</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>253.1488561805823</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>161.4046520073175</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>5.562624396424664</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2465.942913862886</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C2" t="n">
-        <v>2096.980396922474</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>1738.714698315724</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E2" t="n">
-        <v>1352.926445717479</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>941.9405409278718</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G2" t="n">
-        <v>523.9767328260587</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>196.7820128620615</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.69838933464703</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C4" t="n">
-        <v>97.69838933464703</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>97.69838933464703</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.823100673951</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C5" t="n">
-        <v>1584.823100673951</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D5" t="n">
-        <v>1584.823100673951</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>1199.034848075707</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>788.0489432860991</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.459253410614</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.459253410614</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.459253410614</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.697468048705</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.634580705134</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1704.86592543502</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1331.40016717394</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.823100673951</v>
+        <v>941.2608351981287</v>
       </c>
     </row>
     <row r="6">
@@ -4749,25 +4749,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>936.2491605982757</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>936.2491605982757</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>936.2491605982757</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>550.4609080000314</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>139.4750032104238</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>125.5515991490147</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982757</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0636002298164</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>348.1274173019095</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>198.0107778895738</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>232.7692952219031</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>63.76949496023556</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>63.76949496023556</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>63.76949496023556</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5029,10 +5029,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5062,7 +5062,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L12" t="n">
-        <v>709.4934589365139</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M12" t="n">
-        <v>1016.813592216476</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1346.676219880508</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829216</v>
+        <v>321.3911813763042</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550147</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028587</v>
@@ -5199,7 +5199,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5208,7 +5208,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.579090436494</v>
+        <v>731.0291971045613</v>
       </c>
       <c r="X13" t="n">
-        <v>966.6240513566914</v>
+        <v>503.0396462065439</v>
       </c>
       <c r="Y13" t="n">
-        <v>745.8314722131613</v>
+        <v>503.0396462065439</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,28 +5278,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635876</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>517.9294177607301</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C16" t="n">
-        <v>517.9294177607301</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>367.8127783483943</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
         <v>244.1070389581962</v>
@@ -5436,7 +5436,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5445,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,19 +5454,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
         <v>1209.787631771461</v>
@@ -5475,13 +5475,13 @@
         <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>920.3704617345004</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344999</v>
+        <v>794.4611765143592</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.5778825909698</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="17">
@@ -5494,22 +5494,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5542,19 +5542,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028587</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1224.275540128287</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1000.490124917793</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>1000.490124917793</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>1000.490124917793</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>711.072954880832</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5773,28 +5773,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126483</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.5941600866659</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>438.5941600866659</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>288.4775206743301</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>288.4775206743301</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>141.5875731764197</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227924</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V22" t="n">
-        <v>620.2426249169056</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W22" t="n">
-        <v>620.2426249169056</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X22" t="n">
-        <v>620.2426249169056</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y22" t="n">
-        <v>620.2426249169056</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5980,22 +5980,22 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028589</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028589</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799365</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,16 +6214,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6238,37 +6238,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1238.013973327074</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>983.329485121187</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>693.9123150842264</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>465.9227641862091</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6442,67 +6442,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571606</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636246</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307618</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526315</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>468.2819334614985</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>299.3457505335916</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>299.3457505335916</v>
       </c>
       <c r="E31" t="n">
         <v>265.3924131404652</v>
@@ -6612,31 +6612,31 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1258.27620142486</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>1003.591713218973</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W31" t="n">
-        <v>714.1745431820127</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X31" t="n">
-        <v>486.1849922839954</v>
+        <v>870.7229774352684</v>
       </c>
       <c r="Y31" t="n">
-        <v>265.3924131404652</v>
+        <v>649.9303982917382</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1078.203944257458</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,61 +6913,61 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6976,13 +6976,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585742</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557898</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347404</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609621</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550752</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181146</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181146</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>441.9005583181146</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,46 +7165,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7213,13 +7213,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7250,10 +7250,10 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
         <v>674.4285624571608</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>157.6003821033658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>157.6003821033658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>157.6003821033658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>157.6003821033658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>157.6003821033658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,7 +7338,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
         <v>779.0639759471189</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247856</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383438</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>675.0071030383438</v>
+        <v>755.1831334811258</v>
       </c>
       <c r="W40" t="n">
-        <v>385.5899330013831</v>
+        <v>465.7659634441652</v>
       </c>
       <c r="X40" t="n">
-        <v>157.6003821033658</v>
+        <v>237.7764125461478</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.6003821033658</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7411,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7575,7 +7575,7 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M43" t="n">
         <v>779.0639759471189</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1019.424940013486</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>764.7404518075996</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>475.3232817706389</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.284191751408</v>
@@ -7657,43 +7657,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>260.2520934878793</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P46" t="n">
         <v>1460.082827585746</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093287</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L12" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231155</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776765</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229594</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928347</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928334</v>
+        <v>449.5135334928337</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776759</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298392</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>288.409182577676</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>90.73552010470095</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>183.1841667000326</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>23.96528065027307</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>101.0594630210974</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338523</v>
+        <v>35.99083926207607</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>122.5667915644051</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>64.30500338171942</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1119469436228</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24609,7 +24609,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
-        <v>225.8648881236604</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.012701199622825e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>112.820158627374</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24894,13 +24894,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>48.00368395686573</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25128,22 +25128,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>2.963168004552841</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>151.2632171142459</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>106.7141107267284</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709148</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>33.08849621799502</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>5.088916456060076</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752766</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752766</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>886944.3223752768</v>
+        <v>886944.3223752766</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>886944.3223752769</v>
+        <v>886944.3223752768</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
+        <v>488786.3246721362</v>
+      </c>
+      <c r="H2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="I2" t="n">
         <v>488786.324672136</v>
       </c>
-      <c r="H2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="K2" t="n">
+        <v>488786.3246721358</v>
+      </c>
+      <c r="L2" t="n">
+        <v>488786.3246721356</v>
+      </c>
+      <c r="M2" t="n">
+        <v>488786.3246721357</v>
+      </c>
+      <c r="N2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="J2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="K2" t="n">
-        <v>488786.324672136</v>
-      </c>
-      <c r="L2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="M2" t="n">
-        <v>488786.3246721359</v>
-      </c>
-      <c r="N2" t="n">
-        <v>488786.3246721356</v>
-      </c>
       <c r="O2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="P2" t="n">
         <v>488786.3246721358</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.270016921102069e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,10 +26426,10 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
@@ -26441,25 +26441,25 @@
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007479</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007489</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007487</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007488</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-307592.899828698</v>
+        <v>-307592.8998286979</v>
       </c>
       <c r="C6" t="n">
-        <v>282374.9793858469</v>
+        <v>282374.979385847</v>
       </c>
       <c r="D6" t="n">
-        <v>282374.9793858468</v>
+        <v>282374.9793858466</v>
       </c>
       <c r="E6" t="n">
-        <v>-137252.3606692061</v>
+        <v>-136375.2285354567</v>
       </c>
       <c r="F6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="G6" t="n">
-        <v>387907.6758076902</v>
+        <v>388784.8079414399</v>
       </c>
       <c r="H6" t="n">
-        <v>387907.6758076902</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="I6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414397</v>
       </c>
       <c r="J6" t="n">
-        <v>211484.4566150974</v>
+        <v>212361.5887488467</v>
       </c>
       <c r="K6" t="n">
-        <v>387907.6758076902</v>
+        <v>388784.8079414399</v>
       </c>
       <c r="L6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414393</v>
       </c>
       <c r="M6" t="n">
-        <v>253106.6605738529</v>
+        <v>253983.7927076022</v>
       </c>
       <c r="N6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414395</v>
       </c>
       <c r="O6" t="n">
-        <v>387907.6758076901</v>
+        <v>388784.8079414396</v>
       </c>
       <c r="P6" t="n">
-        <v>387907.6758076898</v>
+        <v>388784.8079414396</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541004</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26807,10 +26807,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.287272754555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>241.3232009322009</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10.52067551358118</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>103.1161092074294</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>162.8733571789361</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.3354633432790521</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>17.64056718375454</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>253.0302416089934</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>49.00680372658893</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>35.4717111800646</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,43 +33575,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,43 +33812,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
@@ -34137,16 +34137,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946991</v>
@@ -34161,7 +34161,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U41" t="n">
         <v>0.2670576580354892</v>
@@ -34207,25 +34207,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458548</v>
@@ -34234,13 +34234,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,19 +34286,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N43" t="n">
         <v>229.144705426375</v>
@@ -34307,22 +34307,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S43" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,43 +34523,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856226</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382552</v>
       </c>
       <c r="L12" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110547</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35743,10 +35743,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
@@ -36451,16 +36451,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092011</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734255</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006117968</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221136</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081116</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560242</v>
@@ -37873,13 +37873,13 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P42" t="n">
         <v>495.5025975092005</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299105</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
